--- a/work-plan.xlsx
+++ b/work-plan.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tr_lnd_user.PACD-516P1DK-D\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="0" windowWidth="27420" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="1245" yWindow="0" windowWidth="19440" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>Tasks</t>
   </si>
@@ -132,81 +127,6 @@
   </si>
   <si>
     <t>1. Set up</t>
-  </si>
-  <si>
-    <r>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212121"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Docker compose</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212121"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Platform management</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>c.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212121"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Docker cartridges</t>
-    </r>
-  </si>
-  <si>
-    <t>4. Document your project</t>
   </si>
   <si>
     <r>
@@ -309,6 +229,42 @@
   </si>
   <si>
     <t xml:space="preserve">3. Creation of Cartridges </t>
+  </si>
+  <si>
+    <t>5. Document your project</t>
+  </si>
+  <si>
+    <t>b. Platform management</t>
+  </si>
+  <si>
+    <t>c. Docker cartridges</t>
+  </si>
+  <si>
+    <t>a. Docker compose</t>
+  </si>
+  <si>
+    <t>a. Gitlab to Jenkins</t>
+  </si>
+  <si>
+    <t>4. Configurations in Jenkins</t>
+  </si>
+  <si>
+    <t>b. Maven to Jenkins</t>
+  </si>
+  <si>
+    <t>c. JUnit to Jenkins</t>
+  </si>
+  <si>
+    <t>d. Sonarqube to Jenkins</t>
+  </si>
+  <si>
+    <t>e. Ansible to Jenkins</t>
+  </si>
+  <si>
+    <t>f. Tomcat to Jenkins</t>
+  </si>
+  <si>
+    <t>g. Selenium to Jenkins</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1358,7 +1314,7 @@
     </row>
     <row r="23" spans="1:15" ht="21.95" customHeight="1">
       <c r="A23" s="33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1405,7 +1361,7 @@
     </row>
     <row r="25" spans="1:15" ht="21.95" customHeight="1">
       <c r="A25" s="34" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1424,7 +1380,7 @@
     </row>
     <row r="26" spans="1:15" ht="21.95" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="14">
@@ -1452,7 +1408,7 @@
     </row>
     <row r="27" spans="1:15" ht="21.95" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="14">
@@ -1480,7 +1436,7 @@
     </row>
     <row r="28" spans="1:15" ht="21.95" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="14">
@@ -1508,7 +1464,7 @@
     </row>
     <row r="29" spans="1:15" ht="21.95" customHeight="1">
       <c r="A29" s="34" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1525,16 +1481,16 @@
       <c r="N29" s="16"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15" ht="87" customHeight="1">
-      <c r="A30" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="30"/>
+    <row r="30" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A30" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="4"/>
       <c r="C30" s="14">
-        <v>42627</v>
+        <v>42626</v>
       </c>
       <c r="D30" s="14">
-        <v>42627</v>
+        <v>42626</v>
       </c>
       <c r="E30" s="4">
         <f>D30-C30</f>
@@ -1553,19 +1509,18 @@
       <c r="N30" s="1"/>
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="1:15" ht="78.75" customHeight="1">
+    <row r="31" spans="1:15" ht="21.95" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="14">
-        <v>42627</v>
+        <v>42622</v>
       </c>
       <c r="D31" s="14">
-        <v>42627</v>
+        <v>42622</v>
       </c>
       <c r="E31" s="4">
-        <f>D31-C31</f>
         <v>0</v>
       </c>
       <c r="F31" s="11" t="s">
@@ -1581,19 +1536,18 @@
       <c r="N31" s="1"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="72.75" customHeight="1">
+    <row r="32" spans="1:15" ht="21.95" customHeight="1">
       <c r="A32" s="36" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="14">
-        <v>42628</v>
+        <v>42622</v>
       </c>
       <c r="D32" s="14">
-        <v>42628</v>
+        <v>42622</v>
       </c>
       <c r="E32" s="4">
-        <f>D32-C32</f>
         <v>0</v>
       </c>
       <c r="F32" s="11" t="s">
@@ -1609,19 +1563,18 @@
       <c r="N32" s="1"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="1:15" ht="61.5" customHeight="1">
+    <row r="33" spans="1:15" ht="21.95" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="14">
-        <v>42628</v>
+        <v>42626</v>
       </c>
       <c r="D33" s="14">
-        <v>42628</v>
+        <v>42626</v>
       </c>
       <c r="E33" s="4">
-        <f>D33-C33</f>
         <v>0</v>
       </c>
       <c r="F33" s="11" t="s">
@@ -1638,51 +1591,263 @@
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="14">
+        <v>42626</v>
+      </c>
+      <c r="D34" s="14">
+        <v>42626</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A35" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="14">
+        <v>42622</v>
+      </c>
+      <c r="D35" s="14">
+        <v>42622</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A36" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="14">
+        <v>42626</v>
+      </c>
+      <c r="D36" s="14">
+        <v>42626</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A37" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="5"/>
+    </row>
+    <row r="38" spans="1:15" ht="87" customHeight="1">
+      <c r="A38" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="14">
+        <v>42627</v>
+      </c>
+      <c r="D38" s="14">
+        <v>42627</v>
+      </c>
+      <c r="E38" s="4">
+        <f>D38-C38</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="1:15" ht="78.75" customHeight="1">
+      <c r="A39" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="14">
+        <v>42627</v>
+      </c>
+      <c r="D39" s="14">
+        <v>42627</v>
+      </c>
+      <c r="E39" s="4">
+        <f>D39-C39</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="1:15" ht="72.75" customHeight="1">
+      <c r="A40" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="14">
+        <v>42628</v>
+      </c>
+      <c r="D40" s="14">
+        <v>42628</v>
+      </c>
+      <c r="E40" s="4">
+        <f>D40-C40</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="1:15" ht="61.5" customHeight="1">
+      <c r="A41" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="14">
+        <v>42628</v>
+      </c>
+      <c r="D41" s="14">
+        <v>42628</v>
+      </c>
+      <c r="E41" s="4">
+        <f>D41-C41</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A42" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19">
+      <c r="B42" s="18"/>
+      <c r="C42" s="19">
         <v>42629</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D42" s="19">
         <v>42629</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="18"/>
-    </row>
-    <row r="35" spans="1:15" ht="29.1" customHeight="1"/>
-    <row r="39" spans="1:15" ht="18.75">
-      <c r="A39" s="23" t="s">
+      <c r="E42" s="18"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="18"/>
+    </row>
+    <row r="43" spans="1:15" ht="29.1" customHeight="1"/>
+    <row r="47" spans="1:15" ht="18.75">
+      <c r="A47" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="8" t="s">
+    <row r="48" spans="1:15">
+      <c r="A48" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="7" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="10" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="31" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="31" t="s">
         <v>8</v>
       </c>
     </row>

--- a/work-plan.xlsx
+++ b/work-plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>Tasks</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Agree on objectives</t>
   </si>
   <si>
-    <t>Launch</t>
-  </si>
-  <si>
     <t>Not started</t>
   </si>
   <si>
@@ -114,19 +111,7 @@
     <t>Developer</t>
   </si>
   <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a. Provisioning Environment </t>
-  </si>
-  <si>
-    <t>b. ADOP Gen 5 Tools</t>
-  </si>
-  <si>
     <t>a. Provide Project</t>
-  </si>
-  <si>
-    <t>1. Set up</t>
   </si>
   <si>
     <r>
@@ -228,12 +213,6 @@
     <t>2. Java Web App</t>
   </si>
   <si>
-    <t xml:space="preserve">3. Creation of Cartridges </t>
-  </si>
-  <si>
-    <t>5. Document your project</t>
-  </si>
-  <si>
     <t>b. Platform management</t>
   </si>
   <si>
@@ -246,9 +225,6 @@
     <t>a. Gitlab to Jenkins</t>
   </si>
   <si>
-    <t>4. Configurations in Jenkins</t>
-  </si>
-  <si>
     <t>b. Maven to Jenkins</t>
   </si>
   <si>
@@ -265,6 +241,51 @@
   </si>
   <si>
     <t>g. Selenium to Jenkins</t>
+  </si>
+  <si>
+    <t>5. Compile Documentation</t>
+  </si>
+  <si>
+    <t>1. Provision Environment (Set-up)</t>
+  </si>
+  <si>
+    <t>a. Create a Stack</t>
+  </si>
+  <si>
+    <t>b. Launch an Instance</t>
+  </si>
+  <si>
+    <t>c.  Install Docker</t>
+  </si>
+  <si>
+    <t>d. Create and deploy Tomcat</t>
+  </si>
+  <si>
+    <t>e. Documentation</t>
+  </si>
+  <si>
+    <t>Cris Narca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mari Cris Ayes / Anjhilian Cabrera </t>
+  </si>
+  <si>
+    <t>Pauleen Pineda</t>
+  </si>
+  <si>
+    <t>Joey Robles</t>
+  </si>
+  <si>
+    <t>Live Project Simulation</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>3. Configurations in Jenkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Creation of Cartridges </t>
   </si>
 </sst>
 </file>
@@ -275,7 +296,7 @@
     <numFmt numFmtId="164" formatCode="m/d;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -377,13 +398,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
       <name val="Calibri"/>
@@ -397,7 +411,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +439,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,7 +566,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -612,10 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -631,13 +654,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -993,129 +1018,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="34.25" customWidth="1"/>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="14" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="13" width="4.5" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.5" customHeight="1"/>
-    <row r="2" spans="1:15" ht="18.75">
+    <row r="1" spans="1:14" ht="13.5" customHeight="1"/>
+    <row r="2" spans="1:14" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="18.75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.75">
       <c r="A3" s="3"/>
       <c r="B3" s="26"/>
       <c r="C3" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18.75">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="25" t="s">
+    <row r="5" spans="1:14">
+      <c r="B5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="B5" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="B6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="B7" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="28" t="s">
+      <c r="C8" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="B8" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="18.75">
+    <row r="10" spans="1:14" ht="18.75">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="18.75">
+    <row r="11" spans="1:14" ht="18.75">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="18.75">
+    <row r="12" spans="1:14" ht="18.75">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="24">
         <v>42619</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="18.75">
+    <row r="13" spans="1:14" ht="18.75">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="24">
         <v>42629</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="18.75">
+    <row r="14" spans="1:14" ht="18.75">
       <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="38">
+        <v>11</v>
+      </c>
+      <c r="B14" s="37">
         <v>0.16600000000000001</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:14">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="30" customHeight="1">
+    <row r="16" spans="1:14" ht="30" customHeight="1">
       <c r="A16" s="22" t="s">
         <v>0</v>
       </c>
@@ -1128,49 +1153,46 @@
       <c r="D16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="23" t="s">
+      <c r="E16" s="23" t="s">
         <v>4</v>
       </c>
+      <c r="F16" s="15">
+        <v>42619</v>
+      </c>
       <c r="G16" s="15">
-        <v>42619</v>
+        <v>42620</v>
       </c>
       <c r="H16" s="15">
-        <v>42620</v>
+        <v>42621</v>
       </c>
       <c r="I16" s="15">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="J16" s="15">
-        <v>42622</v>
+        <v>42626</v>
       </c>
       <c r="K16" s="15">
-        <v>42626</v>
+        <v>42627</v>
       </c>
       <c r="L16" s="15">
-        <v>42627</v>
+        <v>42628</v>
       </c>
       <c r="M16" s="15">
-        <v>42628</v>
-      </c>
-      <c r="N16" s="15">
         <v>42629</v>
       </c>
-      <c r="O16" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A17" s="33" t="s">
-        <v>27</v>
+      <c r="N16" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A17" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
@@ -1178,74 +1200,69 @@
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="12"/>
-    </row>
-    <row r="18" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A18" s="35" t="s">
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A18" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="C18" s="14">
         <v>42619</v>
       </c>
       <c r="D18" s="14">
         <v>42619</v>
       </c>
-      <c r="E18" s="4">
-        <f>C18-D18</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="32"/>
+      <c r="E18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A19" s="35" t="s">
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A19" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="C19" s="14">
         <v>42619</v>
       </c>
       <c r="D19" s="14">
         <v>42619</v>
       </c>
-      <c r="E19" s="4">
-        <f>D19-C19</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="32"/>
+      <c r="E19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A20" s="33" t="s">
-        <v>35</v>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A20" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
@@ -1253,224 +1270,207 @@
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A21" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="4"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A21" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="C21" s="14">
         <v>42620</v>
       </c>
       <c r="D21" s="14">
         <v>42620</v>
       </c>
-      <c r="E21" s="4">
-        <f>D21-C21</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="1"/>
+      <c r="E21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A22" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A22" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="C22" s="14">
         <v>42620</v>
       </c>
       <c r="D22" s="14">
         <v>42620</v>
       </c>
-      <c r="E22" s="4">
-        <f>D22-C22</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="1"/>
+      <c r="E22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A23" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A24" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A23" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="14">
+        <v>42620</v>
+      </c>
+      <c r="D23" s="14">
+        <v>42620</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A24" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="C24" s="14">
-        <v>42621</v>
+        <v>42620</v>
       </c>
       <c r="D24" s="14">
-        <v>42621</v>
-      </c>
-      <c r="E24" s="4">
-        <f>D24-C24</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>42620</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="1:15" ht="21.95" customHeight="1">
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" ht="21.95" customHeight="1">
       <c r="A25" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A26" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="14">
-        <v>42621</v>
-      </c>
-      <c r="D26" s="14">
-        <v>42621</v>
-      </c>
-      <c r="E26" s="4">
-        <f>D26-C26</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A27" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="14">
+        <v>42620</v>
+      </c>
+      <c r="D25" s="14">
+        <v>42620</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A26" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A27" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="C27" s="14">
-        <v>42622</v>
+        <v>42620</v>
       </c>
       <c r="D27" s="14">
-        <v>42622</v>
-      </c>
-      <c r="E27" s="4">
-        <f>D27-C27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>42620</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A28" s="36" t="s">
-        <v>44</v>
-      </c>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A28" s="34"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="14">
-        <v>42626</v>
-      </c>
-      <c r="D28" s="14">
-        <v>42626</v>
-      </c>
-      <c r="E28" s="4">
-        <f>D28-C28</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="1"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="39"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="4"/>
-    </row>
-    <row r="29" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A29" s="34" t="s">
-        <v>47</v>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A29" s="33" t="s">
+        <v>59</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
@@ -1478,12 +1478,11 @@
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A30" s="36" t="s">
-        <v>46</v>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A30" s="35" t="s">
+        <v>39</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="14">
@@ -1492,26 +1491,22 @@
       <c r="D30" s="14">
         <v>42626</v>
       </c>
-      <c r="E30" s="4">
-        <f>D30-C30</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="1"/>
+      <c r="E30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="39"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A31" s="36" t="s">
-        <v>48</v>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A31" s="35" t="s">
+        <v>40</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="14">
@@ -1520,25 +1515,22 @@
       <c r="D31" s="14">
         <v>42622</v>
       </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="1"/>
+      <c r="E31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="39"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="4"/>
-    </row>
-    <row r="32" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A32" s="36" t="s">
-        <v>49</v>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A32" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="14">
@@ -1547,12 +1539,10 @@
       <c r="D32" s="14">
         <v>42622</v>
       </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="E32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1560,12 +1550,11 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="4"/>
-    </row>
-    <row r="33" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A33" s="36" t="s">
-        <v>50</v>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A33" s="35" t="s">
+        <v>42</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="14">
@@ -1574,25 +1563,22 @@
       <c r="D33" s="14">
         <v>42626</v>
       </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="1"/>
+      <c r="E33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="39"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="4"/>
-    </row>
-    <row r="34" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A34" s="36" t="s">
-        <v>51</v>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A34" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="14">
@@ -1601,12 +1587,10 @@
       <c r="D34" s="14">
         <v>42626</v>
       </c>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="E34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1614,12 +1598,11 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A35" s="36" t="s">
-        <v>52</v>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A35" s="35" t="s">
+        <v>44</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="14">
@@ -1628,12 +1611,10 @@
       <c r="D35" s="14">
         <v>42622</v>
       </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="E35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1641,12 +1622,11 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="4"/>
-    </row>
-    <row r="36" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A36" s="36" t="s">
-        <v>53</v>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A36" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="14">
@@ -1655,12 +1635,10 @@
       <c r="D36" s="14">
         <v>42626</v>
       </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="E36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1668,74 +1646,57 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="4"/>
-    </row>
-    <row r="37" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A37" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="1:15" ht="87" customHeight="1">
-      <c r="A38" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="14">
-        <v>42627</v>
-      </c>
-      <c r="D38" s="14">
-        <v>42627</v>
-      </c>
-      <c r="E38" s="4">
-        <f>D38-C38</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="4"/>
-    </row>
-    <row r="39" spans="1:15" ht="78.75" customHeight="1">
-      <c r="A39" s="36" t="s">
-        <v>37</v>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A37" s="35"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A38" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A39" s="35" t="s">
+        <v>38</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="14">
-        <v>42627</v>
+        <v>42621</v>
       </c>
       <c r="D39" s="14">
-        <v>42627</v>
-      </c>
-      <c r="E39" s="4">
-        <f>D39-C39</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>8</v>
-      </c>
+        <v>42621</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -1743,27 +1704,23 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="4"/>
-    </row>
-    <row r="40" spans="1:15" ht="72.75" customHeight="1">
-      <c r="A40" s="36" t="s">
-        <v>38</v>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A40" s="35" t="s">
+        <v>36</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="14">
-        <v>42628</v>
+        <v>42622</v>
       </c>
       <c r="D40" s="14">
-        <v>42628</v>
-      </c>
-      <c r="E40" s="4">
-        <f>D40-C40</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>8</v>
-      </c>
+        <v>42622</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -1771,84 +1728,192 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="4"/>
-    </row>
-    <row r="41" spans="1:15" ht="61.5" customHeight="1">
-      <c r="A41" s="36" t="s">
-        <v>39</v>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A41" s="35" t="s">
+        <v>37</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="14">
-        <v>42628</v>
+        <v>42626</v>
       </c>
       <c r="D41" s="14">
-        <v>42628</v>
-      </c>
-      <c r="E41" s="4">
-        <f>D41-C41</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="1"/>
+        <v>42626</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="39"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="4"/>
-    </row>
-    <row r="42" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A42" s="17" t="s">
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A42" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="1:14" ht="87" customHeight="1">
+      <c r="A43" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="29"/>
+      <c r="C43" s="14">
+        <v>42627</v>
+      </c>
+      <c r="D43" s="14">
+        <v>42627</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14" ht="78.75" customHeight="1">
+      <c r="A44" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="14">
+        <v>42627</v>
+      </c>
+      <c r="D44" s="14">
+        <v>42627</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:14" ht="72.75" customHeight="1">
+      <c r="A45" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="14">
+        <v>42628</v>
+      </c>
+      <c r="D45" s="14">
+        <v>42628</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="1:14" ht="61.5" customHeight="1">
+      <c r="A46" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="14">
+        <v>42628</v>
+      </c>
+      <c r="D46" s="14">
+        <v>42628</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A47" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19">
         <v>42629</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D47" s="19">
         <v>42629</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="18"/>
-    </row>
-    <row r="43" spans="1:15" ht="29.1" customHeight="1"/>
-    <row r="47" spans="1:15" ht="18.75">
-      <c r="A47" s="23" t="s">
+      <c r="E47" s="20"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="18"/>
+    </row>
+    <row r="48" spans="1:14" ht="29.1" customHeight="1"/>
+    <row r="52" spans="1:1" ht="18.75">
+      <c r="A52" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="8" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="31" t="s">
-        <v>8</v>
+    <row r="56" spans="1:1">
+      <c r="A56" s="30" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/work-plan.xlsx
+++ b/work-plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
   <si>
     <t>Tasks</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Documentation</t>
-  </si>
-  <si>
-    <t>Developer</t>
   </si>
   <si>
     <t>a. Provide Project</t>
@@ -287,6 +284,18 @@
   <si>
     <t xml:space="preserve">4. Creation of Cartridges </t>
   </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>NYD</t>
+  </si>
+  <si>
+    <t>NYD (Not Yet Done)</t>
+  </si>
+  <si>
+    <t>Developer/CICD</t>
+  </si>
 </sst>
 </file>
 
@@ -296,7 +305,7 @@
     <numFmt numFmtId="164" formatCode="m/d;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -409,6 +418,13 @@
       <color rgb="FF212121"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -566,7 +582,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -638,9 +654,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -663,6 +676,15 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1018,17 +1040,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="34.25" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
     <col min="6" max="13" width="4.5" customWidth="1"/>
@@ -1059,7 +1081,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1091,7 +1113,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75">
@@ -1130,7 +1152,7 @@
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="36">
         <v>0.16600000000000001</v>
       </c>
       <c r="C14" s="2"/>
@@ -1185,7 +1207,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="31" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="12"/>
@@ -1203,11 +1225,11 @@
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="14">
         <v>42619</v>
@@ -1218,7 +1240,7 @@
       <c r="E18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="31"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1226,14 +1248,16 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="4"/>
+      <c r="N18" s="41" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="14">
         <v>42619</v>
@@ -1244,7 +1268,7 @@
       <c r="E19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="31"/>
+      <c r="F19" s="30"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1252,11 +1276,13 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="4"/>
+      <c r="N19" s="41" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A20" s="32" t="s">
-        <v>47</v>
+      <c r="A20" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1273,11 +1299,11 @@
       <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A21" s="34" t="s">
-        <v>48</v>
+      <c r="A21" s="33" t="s">
+        <v>47</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="14">
         <v>42620</v>
@@ -1289,21 +1315,23 @@
         <v>12</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="38"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="4"/>
+      <c r="N21" s="41" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A22" s="34" t="s">
-        <v>49</v>
+      <c r="A22" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="14">
         <v>42620</v>
@@ -1315,21 +1343,23 @@
         <v>12</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="38"/>
+      <c r="G22" s="37"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="4"/>
+      <c r="N22" s="41" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A23" s="34" t="s">
-        <v>50</v>
+      <c r="A23" s="33" t="s">
+        <v>49</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="14">
         <v>42620</v>
@@ -1341,21 +1371,23 @@
         <v>12</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="38"/>
+      <c r="G23" s="37"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="4"/>
+      <c r="N23" s="41" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A24" s="34" t="s">
-        <v>51</v>
+      <c r="A24" s="33" t="s">
+        <v>50</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="14">
         <v>42620</v>
@@ -1367,21 +1399,23 @@
         <v>12</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="38"/>
+      <c r="G24" s="37"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="4"/>
+      <c r="N24" s="41" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A25" s="34" t="s">
-        <v>52</v>
+      <c r="A25" s="33" t="s">
+        <v>51</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="14">
         <v>42620</v>
@@ -1393,18 +1427,20 @@
         <v>12</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="38"/>
+      <c r="G25" s="37"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="4"/>
+      <c r="N25" s="41" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="26" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A26" s="32" t="s">
-        <v>35</v>
+      <c r="A26" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1421,11 +1457,11 @@
       <c r="N26" s="5"/>
     </row>
     <row r="27" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A27" s="34" t="s">
-        <v>30</v>
+      <c r="A27" s="33" t="s">
+        <v>29</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="14">
         <v>42620</v>
@@ -1437,75 +1473,89 @@
         <v>13</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="1"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="4"/>
+      <c r="N27" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A28" s="34"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="4"/>
+      <c r="A28" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A29" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="5"/>
+      <c r="A29" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="14">
+        <v>42626</v>
+      </c>
+      <c r="D29" s="14">
+        <v>42626</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="34" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="14">
-        <v>42626</v>
+        <v>42622</v>
       </c>
       <c r="D30" s="14">
-        <v>42626</v>
+        <v>42622</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="4"/>
+      <c r="N30" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="34" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="4"/>
@@ -1515,45 +1565,49 @@
       <c r="D31" s="14">
         <v>42622</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>13</v>
+      <c r="E31" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="39"/>
+      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="4"/>
+      <c r="N31" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="34" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="14">
-        <v>42622</v>
+        <v>42626</v>
       </c>
       <c r="D32" s="14">
-        <v>42622</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>7</v>
+        <v>42626</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="4"/>
+      <c r="N32" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="33" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="34" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="4"/>
@@ -1563,29 +1617,31 @@
       <c r="D33" s="14">
         <v>42626</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>13</v>
+      <c r="E33" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="39"/>
+      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="4"/>
+      <c r="N33" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="34" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="14">
-        <v>42626</v>
+        <v>42622</v>
       </c>
       <c r="D34" s="14">
-        <v>42626</v>
+        <v>42622</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>7</v>
@@ -1598,18 +1654,20 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="4"/>
+      <c r="N34" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="35" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="34" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="14">
-        <v>42622</v>
+        <v>42626</v>
       </c>
       <c r="D35" s="14">
-        <v>42622</v>
+        <v>42626</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>7</v>
@@ -1622,297 +1680,296 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="4"/>
+      <c r="N35" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="36" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A36" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="14">
-        <v>42626</v>
-      </c>
-      <c r="D36" s="14">
-        <v>42626</v>
-      </c>
-      <c r="E36" s="11" t="s">
+      <c r="A36" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A37" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="14">
+        <v>42621</v>
+      </c>
+      <c r="D37" s="14">
+        <v>42621</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A37" s="35"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="11"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="38"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="4"/>
+      <c r="N37" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="38" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A38" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="5"/>
+      <c r="A38" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="14">
+        <v>42622</v>
+      </c>
+      <c r="D38" s="14">
+        <v>42622</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="39" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A39" s="35" t="s">
-        <v>38</v>
+      <c r="A39" s="34" t="s">
+        <v>36</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="14">
-        <v>42621</v>
+        <v>42626</v>
       </c>
       <c r="D39" s="14">
-        <v>42621</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>7</v>
+        <v>42626</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="4"/>
+      <c r="N39" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="40" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A40" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="14">
-        <v>42622</v>
-      </c>
-      <c r="D40" s="14">
-        <v>42622</v>
-      </c>
-      <c r="E40" s="11" t="s">
+      <c r="A40" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="1:14" ht="43.5" customHeight="1">
+      <c r="A41" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="14">
+        <v>42627</v>
+      </c>
+      <c r="D41" s="14">
+        <v>42627</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A41" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="14">
-        <v>42626</v>
-      </c>
-      <c r="D41" s="14">
-        <v>42626</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="1"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="4"/>
-    </row>
-    <row r="42" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A42" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="5"/>
-    </row>
-    <row r="43" spans="1:14" ht="87" customHeight="1">
-      <c r="A43" s="36" t="s">
+      <c r="N41" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="40.5" customHeight="1">
+      <c r="A42" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="29"/>
+      <c r="B42" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="14">
+        <v>42627</v>
+      </c>
+      <c r="D42" s="14">
+        <v>42627</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="27" customHeight="1">
+      <c r="A43" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>54</v>
+      </c>
       <c r="C43" s="14">
-        <v>42627</v>
+        <v>42628</v>
       </c>
       <c r="D43" s="14">
-        <v>42627</v>
+        <v>42628</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="1:14" ht="78.75" customHeight="1">
-      <c r="A44" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="4"/>
+      <c r="N43" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A44" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>54</v>
+      </c>
       <c r="C44" s="14">
-        <v>42627</v>
+        <v>42628</v>
       </c>
       <c r="D44" s="14">
-        <v>42627</v>
+        <v>42628</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="4"/>
-    </row>
-    <row r="45" spans="1:14" ht="72.75" customHeight="1">
-      <c r="A45" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="14">
-        <v>42628</v>
-      </c>
-      <c r="D45" s="14">
-        <v>42628</v>
-      </c>
-      <c r="E45" s="11" t="s">
+      <c r="N44" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A45" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19">
+        <v>42629</v>
+      </c>
+      <c r="D45" s="19">
+        <v>42629</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="18"/>
+    </row>
+    <row r="46" spans="1:14" ht="29.1" customHeight="1"/>
+    <row r="50" spans="1:2" ht="18.75">
+      <c r="A50" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="4"/>
-    </row>
-    <row r="46" spans="1:14" ht="61.5" customHeight="1">
-      <c r="A46" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="14">
-        <v>42628</v>
-      </c>
-      <c r="D46" s="14">
-        <v>42628</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="4"/>
-    </row>
-    <row r="47" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A47" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="19">
-        <v>42629</v>
-      </c>
-      <c r="D47" s="19">
-        <v>42629</v>
-      </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="18"/>
-    </row>
-    <row r="48" spans="1:14" ht="29.1" customHeight="1"/>
-    <row r="52" spans="1:1" ht="18.75">
-      <c r="A52" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="30" t="s">
+      <c r="B54" s="29" t="s">
         <v>7</v>
       </c>
     </row>

--- a/work-plan.xlsx
+++ b/work-plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
   <si>
     <t>Tasks</t>
   </si>
@@ -270,31 +270,40 @@
     <t>Pauleen Pineda</t>
   </si>
   <si>
+    <t>Live Project Simulation</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>3. Configurations in Jenkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Creation of Cartridges </t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>NYD</t>
+  </si>
+  <si>
+    <t>NYD (Not Yet Done)</t>
+  </si>
+  <si>
+    <t>Developer/CICD</t>
+  </si>
+  <si>
+    <t>Mari Cris Ayes/Joey Robles</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
     <t>Joey Robles</t>
   </si>
   <si>
-    <t>Live Project Simulation</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>3. Configurations in Jenkins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Creation of Cartridges </t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>NYD</t>
-  </si>
-  <si>
-    <t>NYD (Not Yet Done)</t>
-  </si>
-  <si>
-    <t>Developer/CICD</t>
+    <t>Mari Cris/ Anjhilian/ Cris</t>
   </si>
 </sst>
 </file>
@@ -305,7 +314,7 @@
     <numFmt numFmtId="164" formatCode="m/d;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -426,6 +435,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -454,12 +470,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -467,6 +477,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,7 +673,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -674,16 +689,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1042,14 +1058,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="34.25" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
@@ -1081,7 +1097,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1113,7 +1129,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75">
@@ -1152,8 +1168,8 @@
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="36">
-        <v>0.16600000000000001</v>
+      <c r="B14" s="35">
+        <v>0.5</v>
       </c>
       <c r="C14" s="2"/>
     </row>
@@ -1207,7 +1223,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="12"/>
@@ -1225,11 +1241,11 @@
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="14">
         <v>42619</v>
@@ -1240,7 +1256,7 @@
       <c r="E18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="30"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1248,16 +1264,16 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="41" t="s">
-        <v>60</v>
+      <c r="N18" s="39" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="14">
         <v>42619</v>
@@ -1268,7 +1284,7 @@
       <c r="E19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="30"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1276,12 +1292,12 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="41" t="s">
-        <v>60</v>
+      <c r="N19" s="39" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="5"/>
@@ -1299,7 +1315,7 @@
       <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="32" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1315,19 +1331,19 @@
         <v>12</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="37"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="41" t="s">
-        <v>60</v>
+      <c r="N21" s="39" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="32" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1343,19 +1359,19 @@
         <v>12</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="37"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="41" t="s">
-        <v>60</v>
+      <c r="N22" s="39" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="32" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1371,19 +1387,19 @@
         <v>12</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="37"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="41" t="s">
-        <v>60</v>
+      <c r="N23" s="39" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="32" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1399,19 +1415,19 @@
         <v>12</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="37"/>
+      <c r="G24" s="36"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="41" t="s">
-        <v>60</v>
+      <c r="N24" s="39" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="32" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1427,19 +1443,19 @@
         <v>12</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="37"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="41" t="s">
-        <v>60</v>
+      <c r="N25" s="39" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="30" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="5"/>
@@ -1457,36 +1473,36 @@
       <c r="N26" s="5"/>
     </row>
     <row r="27" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="32" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C27" s="14">
         <v>42620</v>
       </c>
       <c r="D27" s="14">
-        <v>42620</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>13</v>
+        <v>42621</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="4" t="s">
-        <v>61</v>
+      <c r="N27" s="39" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A28" s="32" t="s">
-        <v>58</v>
+      <c r="A28" s="31" t="s">
+        <v>57</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1503,140 +1519,152 @@
       <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="C29" s="14">
-        <v>42626</v>
+        <v>42621</v>
       </c>
       <c r="D29" s="14">
-        <v>42626</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>13</v>
+        <v>42621</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="4" t="s">
-        <v>61</v>
+      <c r="N29" s="39" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="C30" s="14">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="D30" s="14">
-        <v>42622</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>13</v>
+        <v>42621</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="4" t="s">
-        <v>61</v>
+      <c r="N30" s="39" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C31" s="14">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="D31" s="14">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="C32" s="14">
-        <v>42626</v>
+        <v>42621</v>
       </c>
       <c r="D32" s="14">
-        <v>42626</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>13</v>
+        <v>42621</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="4" t="s">
-        <v>61</v>
+      <c r="N32" s="39" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C33" s="14">
-        <v>42626</v>
+        <v>42621</v>
       </c>
       <c r="D33" s="14">
-        <v>42626</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>7</v>
+        <v>42622</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="37"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="C34" s="14">
         <v>42622</v>
       </c>
@@ -1655,16 +1683,18 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="C35" s="14">
-        <v>42626</v>
+        <v>42622</v>
       </c>
       <c r="D35" s="14">
         <v>42626</v>
@@ -1681,12 +1711,12 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A36" s="32" t="s">
-        <v>59</v>
+      <c r="A36" s="31" t="s">
+        <v>58</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1703,64 +1733,70 @@
       <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C37" s="14">
         <v>42621</v>
       </c>
       <c r="D37" s="14">
-        <v>42621</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>7</v>
+        <v>42626</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="38"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="37"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="4" t="s">
-        <v>61</v>
+      <c r="N37" s="39" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="41" t="s">
+        <v>54</v>
+      </c>
       <c r="C38" s="14">
-        <v>42622</v>
+        <v>42621</v>
       </c>
       <c r="D38" s="14">
-        <v>42622</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>7</v>
+        <v>42626</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="38"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="37"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="4" t="s">
-        <v>61</v>
+      <c r="N38" s="39" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="C39" s="14">
-        <v>42626</v>
+        <v>42621</v>
       </c>
       <c r="D39" s="14">
         <v>42626</v>
@@ -1769,19 +1805,19 @@
         <v>13</v>
       </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="4" t="s">
-        <v>61</v>
+      <c r="N39" s="39" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="31" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="5"/>
@@ -1799,42 +1835,42 @@
       <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14" ht="43.5" customHeight="1">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="41" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="14">
-        <v>42627</v>
+        <v>42621</v>
       </c>
       <c r="D41" s="14">
         <v>42627</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
+      <c r="E41" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="37"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="40.5" customHeight="1">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="38" t="s">
         <v>54</v>
       </c>
       <c r="C42" s="14">
-        <v>42627</v>
+        <v>42621</v>
       </c>
       <c r="D42" s="14">
         <v>42627</v>
@@ -1842,27 +1878,27 @@
       <c r="E42" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="27" customHeight="1">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="38" t="s">
         <v>54</v>
       </c>
       <c r="C43" s="14">
-        <v>42628</v>
+        <v>42621</v>
       </c>
       <c r="D43" s="14">
         <v>42628</v>
@@ -1870,23 +1906,23 @@
       <c r="E43" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="38" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="14">
@@ -1898,21 +1934,21 @@
       <c r="E44" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="21.95" customHeight="1">
       <c r="A45" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="19">
@@ -1946,7 +1982,7 @@
         <v>12</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1954,7 +1990,7 @@
         <v>14</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:2">

--- a/work-plan.xlsx
+++ b/work-plan.xlsx
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1069,7 +1069,10 @@
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="13" width="4.5" customWidth="1"/>
+    <col min="6" max="9" width="4.5" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="5.25" customWidth="1"/>
+    <col min="12" max="13" width="4.5" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
   </cols>
   <sheetData>

--- a/work-plan.xlsx
+++ b/work-plan.xlsx
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1146,7 +1146,6 @@
     </row>
     <row r="11" spans="1:14" ht="18.75">
       <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="18.75">
@@ -1486,7 +1485,7 @@
         <v>42620</v>
       </c>
       <c r="D27" s="14">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>12</v>
@@ -1494,7 +1493,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="36"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1646,19 +1645,19 @@
       <c r="D33" s="14">
         <v>42622</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>13</v>
+      <c r="E33" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="1"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="4" t="s">
-        <v>60</v>
+      <c r="N33" s="39" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="21.95" customHeight="1">
@@ -1856,7 +1855,7 @@
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
       <c r="H41" s="37"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="37"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -1873,18 +1872,18 @@
         <v>54</v>
       </c>
       <c r="C42" s="14">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="D42" s="14">
-        <v>42627</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>7</v>
+        <v>42622</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
       <c r="H42" s="40"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="36"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>

--- a/work-plan.xlsx
+++ b/work-plan.xlsx
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1171,7 +1171,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="35">
-        <v>0.5</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="C14" s="2"/>
     </row>
@@ -1528,7 +1528,7 @@
         <v>53</v>
       </c>
       <c r="C29" s="14">
-        <v>42621</v>
+        <v>42620</v>
       </c>
       <c r="D29" s="14">
         <v>42621</v>
@@ -1556,7 +1556,7 @@
         <v>53</v>
       </c>
       <c r="C30" s="14">
-        <v>42621</v>
+        <v>42620</v>
       </c>
       <c r="D30" s="14">
         <v>42621</v>
@@ -1584,10 +1584,10 @@
         <v>65</v>
       </c>
       <c r="C31" s="14">
-        <v>42621</v>
+        <v>42626</v>
       </c>
       <c r="D31" s="14">
-        <v>42621</v>
+        <v>42627</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>7</v>
@@ -1612,7 +1612,7 @@
         <v>53</v>
       </c>
       <c r="C32" s="14">
-        <v>42621</v>
+        <v>42620</v>
       </c>
       <c r="D32" s="14">
         <v>42621</v>
@@ -1671,15 +1671,15 @@
         <v>42622</v>
       </c>
       <c r="D34" s="14">
-        <v>42622</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>7</v>
+        <v>42626</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="37"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -1701,13 +1701,13 @@
       <c r="D35" s="14">
         <v>42626</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>7</v>
+      <c r="E35" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="37"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -1753,13 +1753,13 @@
       <c r="F37" s="1"/>
       <c r="G37" s="40"/>
       <c r="H37" s="37"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="37"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="39" t="s">
-        <v>59</v>
+      <c r="N37" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="21.95" customHeight="1">
@@ -1781,13 +1781,13 @@
       <c r="F38" s="1"/>
       <c r="G38" s="40"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="37"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="39" t="s">
-        <v>59</v>
+      <c r="N38" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="21.95" customHeight="1">
@@ -1798,7 +1798,7 @@
         <v>52</v>
       </c>
       <c r="C39" s="14">
-        <v>42621</v>
+        <v>42620</v>
       </c>
       <c r="D39" s="14">
         <v>42626</v>
@@ -1809,13 +1809,13 @@
       <c r="F39" s="1"/>
       <c r="G39" s="37"/>
       <c r="H39" s="37"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="37"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="39" t="s">
-        <v>59</v>
+      <c r="N39" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="21.95" customHeight="1">
@@ -1888,8 +1888,8 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="4" t="s">
-        <v>60</v>
+      <c r="N42" s="39" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="27" customHeight="1">
@@ -1900,18 +1900,18 @@
         <v>54</v>
       </c>
       <c r="C43" s="14">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="D43" s="14">
         <v>42628</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>7</v>
+      <c r="E43" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F43" s="40"/>
       <c r="G43" s="40"/>
       <c r="H43" s="40"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="37"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -1928,18 +1928,18 @@
         <v>54</v>
       </c>
       <c r="C44" s="14">
-        <v>42628</v>
+        <v>42622</v>
       </c>
       <c r="D44" s="14">
         <v>42628</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>7</v>
+      <c r="E44" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
       <c r="H44" s="40"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="37"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>

--- a/work-plan.xlsx
+++ b/work-plan.xlsx
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1680,7 +1680,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="37"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="37"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -1708,7 +1708,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="37"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="37"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -1754,7 +1754,7 @@
       <c r="G37" s="40"/>
       <c r="H37" s="37"/>
       <c r="I37" s="37"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="37"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -1782,7 +1782,7 @@
       <c r="G38" s="40"/>
       <c r="H38" s="37"/>
       <c r="I38" s="37"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="37"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -1810,7 +1810,7 @@
       <c r="G39" s="37"/>
       <c r="H39" s="37"/>
       <c r="I39" s="37"/>
-      <c r="J39" s="1"/>
+      <c r="J39" s="37"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -1856,7 +1856,7 @@
       <c r="G41" s="40"/>
       <c r="H41" s="37"/>
       <c r="I41" s="37"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="37"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -1912,7 +1912,7 @@
       <c r="G43" s="40"/>
       <c r="H43" s="40"/>
       <c r="I43" s="37"/>
-      <c r="J43" s="1"/>
+      <c r="J43" s="37"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -1940,7 +1940,7 @@
       <c r="G44" s="40"/>
       <c r="H44" s="40"/>
       <c r="I44" s="37"/>
-      <c r="J44" s="1"/>
+      <c r="J44" s="37"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>

--- a/work-plan.xlsx
+++ b/work-plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="66">
   <si>
     <t>Tasks</t>
   </si>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>b. Maven to Jenkins</t>
-  </si>
-  <si>
-    <t>c. JUnit to Jenkins</t>
   </si>
   <si>
     <t>d. Sonarqube to Jenkins</t>
@@ -598,7 +595,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -622,9 +619,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1056,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1081,14 +1075,14 @@
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75">
       <c r="A3" s="3"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1096,50 +1090,50 @@
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>62</v>
+      <c r="C4" s="27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>64</v>
+      <c r="C8" s="27" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2"/>
@@ -1152,7 +1146,7 @@
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>42619</v>
       </c>
       <c r="C12" s="2"/>
@@ -1161,7 +1155,7 @@
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>42629</v>
       </c>
       <c r="C13" s="2"/>
@@ -1170,8 +1164,8 @@
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="35">
-        <v>0.59099999999999997</v>
+      <c r="B14" s="34">
+        <v>0.66669999999999996</v>
       </c>
       <c r="C14" s="2"/>
     </row>
@@ -1181,84 +1175,84 @@
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <v>42619</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="14">
         <v>42620</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="14">
         <v>42621</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="14">
         <v>42622</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="14">
         <v>42626</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="14">
         <v>42627</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="14">
         <v>42628</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="14">
         <v>42629</v>
       </c>
-      <c r="N16" s="22" t="s">
+      <c r="N16" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="14">
+        <v>55</v>
+      </c>
+      <c r="C18" s="13">
         <v>42619</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>42619</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="36"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1266,27 +1260,27 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="39" t="s">
-        <v>59</v>
+      <c r="N18" s="38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="14">
+        <v>55</v>
+      </c>
+      <c r="C19" s="13">
         <v>42619</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>42619</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="36"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1294,384 +1288,384 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="39" t="s">
-        <v>59</v>
+      <c r="N19" s="38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A20" s="30" t="s">
-        <v>46</v>
+      <c r="A20" s="29" t="s">
+        <v>45</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
       <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A21" s="32" t="s">
-        <v>47</v>
+      <c r="A21" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="14">
+        <v>51</v>
+      </c>
+      <c r="C21" s="13">
         <v>42620</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>42620</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="36"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="39" t="s">
-        <v>59</v>
+      <c r="N21" s="38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A22" s="32" t="s">
-        <v>48</v>
+      <c r="A22" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="14">
+        <v>51</v>
+      </c>
+      <c r="C22" s="13">
         <v>42620</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>42620</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="36"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="39" t="s">
-        <v>59</v>
+      <c r="N22" s="38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A23" s="32" t="s">
-        <v>49</v>
+      <c r="A23" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="14">
+        <v>52</v>
+      </c>
+      <c r="C23" s="13">
         <v>42620</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>42620</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="36"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="39" t="s">
-        <v>59</v>
+      <c r="N23" s="38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A24" s="32" t="s">
-        <v>50</v>
+      <c r="A24" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="14">
+        <v>52</v>
+      </c>
+      <c r="C24" s="13">
         <v>42620</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>42620</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="36"/>
+      <c r="G24" s="35"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="39" t="s">
-        <v>59</v>
+      <c r="N24" s="38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A25" s="32" t="s">
-        <v>51</v>
+      <c r="A25" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="14">
+        <v>53</v>
+      </c>
+      <c r="C25" s="13">
         <v>42620</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <v>42620</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="36"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="39" t="s">
-        <v>59</v>
+      <c r="N25" s="38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="29" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
       <c r="N26" s="5"/>
     </row>
     <row r="27" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="14">
+        <v>62</v>
+      </c>
+      <c r="C27" s="13">
         <v>42620</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>42622</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="39" t="s">
-        <v>59</v>
+      <c r="N27" s="38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A28" s="31" t="s">
-        <v>57</v>
+      <c r="A28" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
       <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="32" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="14">
+        <v>52</v>
+      </c>
+      <c r="C29" s="13">
         <v>42620</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <v>42621</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="39" t="s">
-        <v>59</v>
+      <c r="N29" s="38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="32" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="14">
+        <v>52</v>
+      </c>
+      <c r="C30" s="13">
         <v>42620</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>42621</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="39" t="s">
-        <v>59</v>
+      <c r="N30" s="38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="32" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="14">
-        <v>42626</v>
-      </c>
-      <c r="D31" s="14">
-        <v>42627</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="C31" s="13">
+        <v>42620</v>
+      </c>
+      <c r="D31" s="13">
+        <v>42621</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="4" t="s">
-        <v>60</v>
+      <c r="N31" s="38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="32" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="14">
-        <v>42620</v>
-      </c>
-      <c r="D32" s="14">
+        <v>65</v>
+      </c>
+      <c r="C32" s="13">
         <v>42621</v>
+      </c>
+      <c r="D32" s="13">
+        <v>42622</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="39" t="s">
-        <v>59</v>
+      <c r="N32" s="38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="14">
-        <v>42621</v>
-      </c>
-      <c r="D33" s="14">
+        <v>52</v>
+      </c>
+      <c r="C33" s="13">
         <v>42622</v>
+      </c>
+      <c r="D33" s="13">
+        <v>42626</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="39" t="s">
-        <v>59</v>
+      <c r="N33" s="38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="32" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="14">
+        <v>52</v>
+      </c>
+      <c r="C34" s="13">
         <v>42622</v>
       </c>
-      <c r="D34" s="14">
-        <v>42626</v>
+      <c r="D34" s="13">
+        <v>42627</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>13</v>
@@ -1679,335 +1673,307 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A35" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A36" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="13">
+        <v>42621</v>
+      </c>
+      <c r="D36" s="13">
+        <v>42627</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A37" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="14">
-        <v>42622</v>
-      </c>
-      <c r="D35" s="14">
-        <v>42626</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A36" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A37" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="14">
+      <c r="C37" s="13">
         <v>42621</v>
       </c>
-      <c r="D37" s="14">
-        <v>42626</v>
+      <c r="D37" s="13">
+        <v>42627</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A38" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="14">
-        <v>42621</v>
-      </c>
-      <c r="D38" s="14">
-        <v>42626</v>
+      <c r="A38" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="13">
+        <v>42620</v>
+      </c>
+      <c r="D38" s="13">
+        <v>42627</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A39" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="14">
-        <v>42620</v>
-      </c>
-      <c r="D39" s="14">
-        <v>42626</v>
-      </c>
-      <c r="E39" s="10" t="s">
+      <c r="A39" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="1:14" ht="43.5" customHeight="1">
+      <c r="A40" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="13">
+        <v>42621</v>
+      </c>
+      <c r="D40" s="13">
+        <v>42627</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A40" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="1:14" ht="43.5" customHeight="1">
-      <c r="A41" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="14">
-        <v>42621</v>
-      </c>
-      <c r="D41" s="14">
-        <v>42627</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="40.5" customHeight="1">
+      <c r="A41" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="13">
+        <v>42622</v>
+      </c>
+      <c r="D41" s="13">
+        <v>42622</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="40.5" customHeight="1">
-      <c r="A42" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="14">
+      <c r="N41" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="27" customHeight="1">
+      <c r="A42" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="13">
         <v>42622</v>
       </c>
-      <c r="D42" s="14">
-        <v>42622</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
+      <c r="D42" s="13">
+        <v>42628</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
       <c r="I42" s="36"/>
-      <c r="J42" s="1"/>
+      <c r="J42" s="36"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="39" t="s">
+      <c r="N42" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="27" customHeight="1">
-      <c r="A43" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="14">
+    <row r="43" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A43" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="13">
         <v>42622</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="13">
         <v>42628</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A44" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18">
+        <v>42629</v>
+      </c>
+      <c r="D44" s="18">
+        <v>42629</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="17"/>
+    </row>
+    <row r="45" spans="1:14" ht="29.1" customHeight="1"/>
+    <row r="49" spans="1:2" ht="18.75">
+      <c r="A49" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A44" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="14">
-        <v>42622</v>
-      </c>
-      <c r="D44" s="14">
-        <v>42628</v>
-      </c>
-      <c r="E44" s="10" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A45" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19">
-        <v>42629</v>
-      </c>
-      <c r="D45" s="19">
-        <v>42629</v>
-      </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="18"/>
-    </row>
-    <row r="46" spans="1:14" ht="29.1" customHeight="1"/>
-    <row r="50" spans="1:2" ht="18.75">
-      <c r="A50" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>61</v>
+      <c r="B52" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="29" t="s">
+      <c r="A53" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B53" s="28" t="s">
         <v>7</v>
       </c>
     </row>

--- a/work-plan.xlsx
+++ b/work-plan.xlsx
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1165,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="34">
-        <v>0.66669999999999996</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="C14" s="2"/>
     </row>
@@ -1675,7 +1675,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
-      <c r="K34" s="1"/>
+      <c r="K34" s="36"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="4" t="s">
@@ -1721,7 +1721,7 @@
       <c r="H36" s="36"/>
       <c r="I36" s="36"/>
       <c r="J36" s="36"/>
-      <c r="K36" s="1"/>
+      <c r="K36" s="36"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="4" t="s">
@@ -1749,7 +1749,7 @@
       <c r="H37" s="36"/>
       <c r="I37" s="36"/>
       <c r="J37" s="36"/>
-      <c r="K37" s="1"/>
+      <c r="K37" s="36"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="4" t="s">
@@ -1777,7 +1777,7 @@
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
-      <c r="K38" s="1"/>
+      <c r="K38" s="36"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="4" t="s">
@@ -1823,7 +1823,7 @@
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
       <c r="J40" s="36"/>
-      <c r="K40" s="1"/>
+      <c r="K40" s="36"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="4" t="s">
@@ -1871,19 +1871,19 @@
       <c r="D42" s="13">
         <v>42628</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>13</v>
+      <c r="E42" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F42" s="39"/>
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="1"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="4" t="s">
-        <v>59</v>
+      <c r="N42" s="38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="17.25" customHeight="1">
@@ -1907,7 +1907,7 @@
       <c r="H43" s="39"/>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="36"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="4" t="s">
